--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +72,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,9 +102,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -434,7 +442,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -456,24 +464,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>75008</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>100668</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>68337</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>100668</v>
       </c>
     </row>
